--- a/biology/Zoologie/Brookesia_tedi/Brookesia_tedi.xlsx
+++ b/biology/Zoologie/Brookesia_tedi/Brookesia_tedi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brookesia tedi est une espèce de reptiles de la famille des Chamaeleonidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'espèce est endémique du nord-est de Madagascar[1],[2].
+L'espèce est endémique du nord-est de Madagascar,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été assignée au genre Brookesia sur la base de la petite taille de son corps, de sa queue courte, des crêtes sur sa tête et de ses épines sur son dos[1],[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été assignée au genre Brookesia sur la base de la petite taille de son corps, de sa queue courte, des crêtes sur sa tête et de ses épines sur son dos,. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique tedi est un hommage à Ted Townsend, en reconnaissance de ses importantes contributions à la phylogénétique et à la systématique des squamates, des caméléons, et du genre Brookesia en particulier[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique tedi est un hommage à Ted Townsend, en reconnaissance de ses importantes contributions à la phylogénétique et à la systématique des squamates, des caméléons, et du genre Brookesia en particulier,.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Mark David Scherz, Jörn Köhler, Andolalao Rakotoarison, Frank Glaw et Miguel Vences, « A new dwarf chameleon, genus Brookesia, from the Marojejy massif in northern Madagascar », Zoosystematics and Evolution, Pensoft Publishers (d), vol. 95, no 1,‎ 6 mars 2019, p. 95-106 (ISSN 1860-0743 et 1435-1935, OCLC 256010449, DOI 10.3897/ZSE.95.32818)</t>
         </is>
